--- a/src/predicciones/holt_winters/producto_198.xlsx
+++ b/src/predicciones/holt_winters/producto_198.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,13 +386,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C73"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,794 +404,1267 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44935</v>
       </c>
       <c r="B2">
-        <v>1.000020309050183</v>
+        <v>1.215455485339032</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44947</v>
       </c>
       <c r="B3">
-        <v>0.9999612598893878</v>
+        <v>1.09382213220619</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44948</v>
       </c>
       <c r="B4">
-        <v>0.9999021802882491</v>
+        <v>1.084315861577919</v>
       </c>
       <c r="C4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44951</v>
       </c>
       <c r="B5">
-        <v>0.9998431101389216</v>
+        <v>1.129219372998156</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44955</v>
       </c>
       <c r="B6">
-        <v>0.9997841172310954</v>
+        <v>0.9503553771005488</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44956</v>
       </c>
       <c r="B7">
-        <v>0.9998178361061449</v>
+        <v>1.185002460420272</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44959</v>
       </c>
       <c r="B8">
-        <v>2.000284538983264</v>
+        <v>0.9938200927395352</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44967</v>
       </c>
       <c r="B9">
-        <v>1.000031899960587</v>
+        <v>1.220064371380788</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44979</v>
       </c>
       <c r="B10">
-        <v>0.9999728507997917</v>
+        <v>1.098431018247945</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44982</v>
       </c>
       <c r="B11">
-        <v>0.999913771198653</v>
+        <v>1.088924747619674</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44986</v>
       </c>
       <c r="B12">
-        <v>0.9998547010493255</v>
+        <v>1.133828259039911</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44994</v>
       </c>
       <c r="B13">
-        <v>0.9997957081414993</v>
+        <v>0.9549642631423039</v>
       </c>
       <c r="C13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44995</v>
       </c>
       <c r="B14">
-        <v>0.9998294270165489</v>
+        <v>1.189611346462027</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44996</v>
       </c>
       <c r="B15">
-        <v>2.000296129893668</v>
+        <v>0.9984289787812902</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44998</v>
       </c>
       <c r="B16">
-        <v>1.000043490870991</v>
+        <v>1.224673257422543</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44999</v>
       </c>
       <c r="B17">
-        <v>0.9999844417101958</v>
+        <v>1.1030399042897</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>45006</v>
       </c>
       <c r="B18">
-        <v>0.9999253621090571</v>
+        <v>1.093533633661429</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>45007</v>
       </c>
       <c r="B19">
-        <v>0.9998662919597296</v>
+        <v>1.138437145081666</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45009</v>
       </c>
       <c r="B20">
-        <v>0.9998072990519035</v>
+        <v>0.9595731491840591</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45010</v>
       </c>
       <c r="B21">
-        <v>0.999841017926953</v>
+        <v>1.194220232503782</v>
       </c>
       <c r="C21">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45011</v>
       </c>
       <c r="B22">
-        <v>2.000307720804072</v>
+        <v>1.003037864823046</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45013</v>
       </c>
       <c r="B23">
-        <v>1.000055081781395</v>
+        <v>1.229282143464298</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45018</v>
       </c>
       <c r="B24">
-        <v>0.9999960326205998</v>
+        <v>1.107648790331455</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45020</v>
       </c>
       <c r="B25">
-        <v>0.9999369530194611</v>
+        <v>1.098142519703184</v>
       </c>
       <c r="C25">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45025</v>
       </c>
       <c r="B26">
-        <v>0.9998778828701336</v>
+        <v>1.143046031123421</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45035</v>
       </c>
       <c r="B27">
-        <v>0.9998188899623074</v>
+        <v>0.9641820352258144</v>
       </c>
       <c r="C27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45048</v>
       </c>
       <c r="B28">
-        <v>0.9998526088373569</v>
+        <v>1.198829118545537</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45055</v>
       </c>
       <c r="B29">
-        <v>2.000319311714476</v>
+        <v>1.007646750864801</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45057</v>
       </c>
       <c r="B30">
-        <v>1.000066672691799</v>
+        <v>1.233891029506053</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45060</v>
       </c>
       <c r="B31">
-        <v>1.000007623531004</v>
+        <v>1.11225767637321</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45061</v>
       </c>
       <c r="B32">
-        <v>0.999948543929865</v>
+        <v>1.10275140574494</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45066</v>
       </c>
       <c r="B33">
-        <v>0.9998894737805375</v>
+        <v>1.147654917165176</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45068</v>
       </c>
       <c r="B34">
-        <v>0.9998304808727113</v>
+        <v>0.9687909212675694</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45070</v>
       </c>
       <c r="B35">
-        <v>0.9998641997477609</v>
+        <v>1.203438004587292</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45072</v>
       </c>
       <c r="B36">
-        <v>2.00033090262488</v>
+        <v>1.012255636906556</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45079</v>
       </c>
       <c r="B37">
-        <v>1.000078263602203</v>
+        <v>1.238499915547808</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45084</v>
       </c>
       <c r="B38">
-        <v>1.000019214441408</v>
+        <v>1.116866562414966</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45086</v>
       </c>
       <c r="B39">
-        <v>0.9999601348402689</v>
+        <v>1.107360291786695</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45091</v>
       </c>
       <c r="B40">
-        <v>0.9999010646909414</v>
+        <v>1.152263803206932</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45092</v>
       </c>
       <c r="B41">
-        <v>0.9998420717831152</v>
+        <v>0.9733998073093246</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45095</v>
       </c>
       <c r="B42">
-        <v>0.9998757906581648</v>
+        <v>1.208046890629048</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45096</v>
       </c>
       <c r="B43">
-        <v>2.000342493535284</v>
+        <v>1.016864522948311</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45099</v>
       </c>
       <c r="B44">
-        <v>1.000089854512607</v>
+        <v>1.243108801589563</v>
       </c>
       <c r="C44">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45105</v>
       </c>
       <c r="B45">
-        <v>1.000030805351812</v>
+        <v>1.121475448456721</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45107</v>
       </c>
       <c r="B46">
-        <v>0.9999717257506731</v>
+        <v>1.11196917782845</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45109</v>
       </c>
       <c r="B47">
-        <v>0.9999126556013456</v>
+        <v>1.156872689248687</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45121</v>
       </c>
       <c r="B48">
-        <v>0.9998536626935194</v>
+        <v>0.9780086933510799</v>
       </c>
       <c r="C48">
         <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45125</v>
       </c>
       <c r="B49">
-        <v>0.9998873815685689</v>
+        <v>1.212655776670803</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45126</v>
       </c>
       <c r="B50">
-        <v>2.000354084445688</v>
+        <v>1.021473408990066</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45127</v>
       </c>
       <c r="B51">
-        <v>1.000101445423011</v>
+        <v>1.247717687631319</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45130</v>
       </c>
       <c r="B52">
-        <v>1.000042396262216</v>
+        <v>1.126084334498476</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45133</v>
       </c>
       <c r="B53">
-        <v>0.999983316661077</v>
+        <v>1.116578063870205</v>
       </c>
       <c r="C53">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45135</v>
       </c>
       <c r="B54">
-        <v>0.9999242465117495</v>
+        <v>1.161481575290442</v>
       </c>
       <c r="C54">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45145</v>
       </c>
       <c r="B55">
-        <v>0.9998652536039233</v>
+        <v>0.9826175793928351</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45147</v>
       </c>
       <c r="B56">
-        <v>0.9998989724789729</v>
+        <v>1.217264662712558</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45149</v>
       </c>
       <c r="B57">
-        <v>2.000365675356092</v>
+        <v>1.026082295031821</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45150</v>
       </c>
       <c r="B58">
-        <v>1.000113036333415</v>
+        <v>1.252326573673074</v>
       </c>
       <c r="C58">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45166</v>
       </c>
       <c r="B59">
-        <v>1.00005398717262</v>
+        <v>1.130693220540231</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45167</v>
       </c>
       <c r="B60">
-        <v>0.9999949075714809</v>
+        <v>1.12118694991196</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45171</v>
       </c>
       <c r="B61">
-        <v>0.9999358374221534</v>
+        <v>1.166090461332197</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45175</v>
       </c>
       <c r="B62">
-        <v>0.9998768445143272</v>
+        <v>0.9872264654345901</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45176</v>
       </c>
       <c r="B63">
-        <v>0.9999105633893768</v>
+        <v>1.221873548754313</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45180</v>
       </c>
       <c r="B64">
-        <v>2.000377266266496</v>
+        <v>1.030691181073577</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45182</v>
       </c>
       <c r="B65">
-        <v>1.000124627243819</v>
+        <v>1.256935459714829</v>
       </c>
       <c r="C65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45184</v>
       </c>
       <c r="B66">
-        <v>1.000065578083024</v>
+        <v>1.135302106581986</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45193</v>
       </c>
       <c r="B67">
-        <v>1.000006498481885</v>
+        <v>1.125795835953716</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45196</v>
       </c>
       <c r="B68">
-        <v>0.9999474283325573</v>
+        <v>1.170699347373952</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45199</v>
       </c>
       <c r="B69">
-        <v>0.9998884354247312</v>
+        <v>0.9918353514763454</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45205</v>
       </c>
       <c r="B70">
-        <v>0.9999221542997807</v>
+        <v>1.226482434796068</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45210</v>
       </c>
       <c r="B71">
-        <v>2.0003888571769</v>
+        <v>1.035300067115332</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45211</v>
       </c>
       <c r="B72">
-        <v>1.000136218154223</v>
+        <v>1.261544345756584</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45212</v>
       </c>
       <c r="B73">
-        <v>1.000077168993428</v>
+        <v>1.139910992623741</v>
       </c>
       <c r="C73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B74">
+        <v>1.130404721995471</v>
+      </c>
+      <c r="C74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B75">
+        <v>1.175308233415708</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B76">
+        <v>0.9964442375181006</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B77">
+        <v>1.231091320837824</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B78">
+        <v>1.039908953157087</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B79">
+        <v>1.266153231798339</v>
+      </c>
+      <c r="C79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B80">
+        <v>1.144519878665497</v>
+      </c>
+      <c r="C80">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B81">
+        <v>1.135013608037226</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B82">
+        <v>1.179917119457463</v>
+      </c>
+      <c r="C82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B83">
+        <v>1.001053123559856</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B84">
+        <v>1.235700206879579</v>
+      </c>
+      <c r="C84">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B85">
+        <v>1.044517839198842</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B86">
+        <v>1.270762117840095</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B87">
+        <v>1.149128764707252</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B88">
+        <v>1.139622494078981</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45276</v>
+      </c>
+      <c r="B89">
+        <v>1.184526005499218</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45282</v>
+      </c>
+      <c r="B90">
+        <v>1.005662009601611</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45283</v>
+      </c>
+      <c r="B91">
+        <v>1.240309092921334</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45286</v>
+      </c>
+      <c r="B92">
+        <v>1.049126725240597</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45295</v>
+      </c>
+      <c r="B93">
+        <v>1.27537100388185</v>
+      </c>
+      <c r="C93">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45296</v>
+      </c>
+      <c r="B94">
+        <v>1.153737650749007</v>
+      </c>
+      <c r="C94">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45299</v>
+      </c>
+      <c r="B95">
+        <v>1.144231380120736</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45301</v>
+      </c>
+      <c r="B96">
+        <v>1.189134891540973</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45302</v>
+      </c>
+      <c r="B97">
+        <v>1.010270895643366</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45304</v>
+      </c>
+      <c r="B98">
+        <v>1.244917978963089</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45305</v>
+      </c>
+      <c r="B99">
+        <v>1.053735611282352</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45306</v>
+      </c>
+      <c r="B100">
+        <v>1.279979889923605</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45309</v>
+      </c>
+      <c r="B101">
+        <v>1.158346536790762</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45310</v>
+      </c>
+      <c r="B102">
+        <v>1.148840266162491</v>
+      </c>
+      <c r="C102">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45311</v>
+      </c>
+      <c r="B103">
+        <v>1.193743777582728</v>
+      </c>
+      <c r="C103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45312</v>
+      </c>
+      <c r="B104">
+        <v>1.014879781685121</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45313</v>
+      </c>
+      <c r="B105">
+        <v>1.249526865004844</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45314</v>
+      </c>
+      <c r="B106">
+        <v>1.058344497324108</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45316</v>
+      </c>
+      <c r="B107">
+        <v>1.28458877596536</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45318</v>
+      </c>
+      <c r="B108">
+        <v>1.162955422832517</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45321</v>
+      </c>
+      <c r="B109">
+        <v>1.153449152204247</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45322</v>
+      </c>
+      <c r="B110">
+        <v>1.198352663624483</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45324</v>
+      </c>
+      <c r="B111">
+        <v>1.019488667726876</v>
+      </c>
+      <c r="C111">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45326</v>
+      </c>
+      <c r="B112">
+        <v>1.254135751046599</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45328</v>
+      </c>
+      <c r="B113">
+        <v>1.062953383365863</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45337</v>
+      </c>
+      <c r="B114">
+        <v>1.289197662007115</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45338</v>
+      </c>
+      <c r="B115">
+        <v>1.167564308874273</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45340</v>
+      </c>
+      <c r="B116">
+        <v>1.158058038246002</v>
+      </c>
+      <c r="C116">
         <v>1</v>
       </c>
     </row>
